--- a/rekap-kontrak.xlsx
+++ b/rekap-kontrak.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/pengadaan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2966D551-C3ED-C045-8AD5-EA94B683F79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912167FD-C3F0-4248-A425-1E1DFF7949D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" xr2:uid="{F3A3066C-3465-B946-9DB9-BFF9B279168E}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20980" xr2:uid="{F3A3066C-3465-B946-9DB9-BFF9B279168E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>NO</t>
   </si>
@@ -68,15 +68,6 @@
   </si>
   <si>
     <t>REKAP DATA KONTRAK</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>PENYEDIA BARANG / JASA :</t>
-  </si>
-  <si>
-    <t>UNIT :</t>
   </si>
   <si>
     <t>METODE PENGADAAN</t>
@@ -176,12 +167,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -190,6 +177,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11319FAB-7F4A-2846-B992-004B30D3EFDC}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -526,76 +516,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
+    <row r="2" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
